--- a/ArticleManage/main_working_folder/output_folders/Data 36 Porous structure of pan-based/Data36_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 36 Porous structure of pan-based/Data36_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 Sample-A1  0&amp;1&amp;0&amp;300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 Sample-A2  0&amp;1&amp;0&amp;300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 Sample-A3  0&amp;1&amp;0&amp;300 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 Sample-A4  0&amp;1&amp;0&amp;1000 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 Sample-A5  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_1 Sample-A1  0&amp;1&amp;0&amp;300" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 Sample-A2  0&amp;1&amp;0&amp;300" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 Sample-A3  0&amp;1&amp;0&amp;300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 Sample-A4  0&amp;1&amp;0&amp;100" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_3 Sample-A5  0&amp;1&amp;0&amp;800" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Sample-A1 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki Sample-A1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A1  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 Sample-A1  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A1  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 Sample-A1  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -427,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Sample-A2 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki Sample-A2 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A2  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 Sample-A2  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A2  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 Sample-A2  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -741,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Sample-A3 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki Sample-A3 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -800,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A3  0&amp;1&amp;0&amp;300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 Sample-A3  0&amp;1&amp;0&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A3  0&amp;1&amp;0&amp;300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 Sample-A3  0&amp;1&amp;0&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1055,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Sample-A4 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki Sample-A4 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1114,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A4  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 Sample-A4  0&amp;1&amp;0&amp;100'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A4  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 Sample-A4  0&amp;1&amp;0&amp;100'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1369,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Sample-A5 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki Sample-A5 z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1428,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A5  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 Sample-A5  0&amp;1&amp;0&amp;800'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Sample-A5  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 Sample-A5  0&amp;1&amp;0&amp;800'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
